--- a/Testdata/TC_Unit Manipulation_08.xlsx
+++ b/Testdata/TC_Unit Manipulation_08.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ozUAAB+LCAAAAAAAAAPtW1tv48YV/iuEnxKg8pCSbFnOLANZkr1CdTEsObvOy4IiRxZrilR5sa239KEIkF6AokmA9Io8FA0CNN2HtNjuFu1/Cdbe9Kl/oWdmeBlS1Fr0umiLerHAcs5lLmfOnPOd0Sx+93JmSefE9UzHfrChbMobErF1xzDt0wcbgT8pKdsb76q4fakT61BztRnxQVgCLdvbvfTMBxtT35/vInRxcbF5Udl03FNUlmUFPe51h/qUzLSSaXu+ZutkI9YybtbaUHHTmPWIrxmar3HNBxudYWezSUy9BbSeZmunxN3cCzzTJp7Xtn3TN4lHNV2i+aTZ6r3HF6aWN7c3FYyW6InkXmBaBpdLSXJ6KAfDkpE5I2pZLsslpVySKyNF3t2q7SryplKrvx8pxoK4q3n+kLjnps4IQ1+bzZm6UpYrirxVU2SMcoWgr8QAKh5YxhE5Nz1iNIlleYUsgsINbOg+rLqYMWF6gm7Y0e2ncOBq8+nI9C1SVH3fcYkOhrrV2H1yMXBD+43mXeCOpqbrL1raonBfxx5xB3NqjWKqKm45tt+wiOsfz2FTiQF7DgzVdwOC0QpmotQyPR2+TTsghjrRLE9USjHxI8c98+aaTvpwYBHt48K2HM0Az/JNzzf1ZNAlBj50nTn0CIPvOZaxD72GwjmMuOeODSamw+45zlkyuzwmZj7AvAH2dKb5kfgSHQ+nzsXAthbDYOzprjkmRmsvks7lYXryQu1m4PnODGaRkDCnCZQF/IGTliXjFtHNmWYdWmBET61ALykCbgS+MzH9pmMFM9uL5pSh4kewohG5jFcYt/EANtemRnfsjh3JczPnstIKR85FPOYygxlBIDc8PdruZUZWuAW0aPuWOWxH6Cr3TQsSgbgXAjXtFcMpIX6uS3AOpjFvn6YWdW9Bx8QooWDwTPBuoKo0QZTY35Es77K/MHLMxm3bCOUUFpwrolzExP1gNhjDCT5na1Jp+M2QMKzC2rM0+wyoj0x/2m9Es8/hYL7mlfLLPAxndW5pC0aO7SLScMfWrcAgPAR07AlzSjo3vo0r2XiJ1IVTrWLNXowWcwi5nrnrw8eDDUjCu57vQprfUHUnsH13QWMFRqHoTTpeMLbZAJq1ts7EJd8PAF0s9gNbbzrG+qMZ3DrHtumvP0MncHkAXF+FWY/GwsBrERpVWJhfW18vsibPLSQ+s8nMsU19fWuDkensjVssxItO1doahJ+vteUtyOQ80dGzvraaC9AQUluhYRqe5+gmc9bweBiCPlpxZFpkogUWwDIfkuppHG2zZNzwzrIyIgkfu1YU81QKej1Avbox29QBLlBkt6k7M0pAADYfDTES5Snm0UnbPu1q9mkAqCKOK1l6HHFpRhy5mu3R5cQgIhN884VwFKc4uFF58BoEzBF48HKAi1FGDo/IbO64mtUDw5j7oduFCAnAR0/zp2ELsplF9MjIKFGNtdIziyZ+kxhLS3wZ9MCHYTJDZEJ0LRxfJzIJDdNV9uBYWk3NMscuj6pR8s7jwYYlcDCKv3RxBaFhtAdQY0G+/S5ZUOCdNEI6c1klYnAHpoFUHR5Vd8pb8tYWYBnaxmzFB865LwHqJYAKpZI00i6ld6SObZjnphFoFnyC88HKuHnCFFRIU9TB+1F8Z1NowDzTlLQAIItTE9LHsmDMSRTUE6K51kIQ5EvsOjrIXX/896vnv7r++M9XP/xd6dUXP7366PN//vUXL599+fL5c07la+TSeKSNLcJmNNrb2ZErVXCwmISpVRFDwUag+4x2csLAb9zGYbHGGs12p3nQ3WOBJCZG6jyXIFoHLpwgaQ75KthAbC9R5AJcRB1FgSlsp7hCblJpXXZO0tIif5Uit8WrF79/9eIPK7VDgyUgS6nXd1jhezMGU5bkYgzWTQV/KlwtyVulclkQzsjgIx75Yzt1DBXq57qs1GQlDuJG7MV5QllW2NNIO0UZPU5qclwUu4DYjpjM80fE82M2PwtCI/TRP/3o2z9+kpIKrRtS0r3A5Bh+oYOhqMG67h+NpOHg+KjZlkbtIfWThCfI8c5fIxyOHh+olFPZNpzy70iQ1SGLSRtQ/GxIzkQimj6VFnAUhYOYcrY8Kh/oll1mZ3ngOsGc74igkFBzJONwkquRE2wYj9lzKeokrBxxPterv3ydpxAupJUgWfWotyfN7NgvGQ2nOJwk8MNT+9nfXj77kAa3pz+7evaDVA/hOPENAPg5nCaxGbs9hLww0WQo+NGQGfNMfiIklpBIK6hDx7R9T1WqrHgKWxhUFdob+xd3ZpDrWMfMXkDPUPBDzWtf+uHBVvsYpQkwz7kGadZJysyYwGN4Ytd//Po317/8+vrTp99++OXVR19c/fjTVy9+++1Xn/NTd/3J0+uffBVG+WwiYHOhxStHfxK7CtEleholmrSlbz74uWQ7vgRYQwpYRPrmg8+EzuhEGSpJegYsF08kPYUlUVGZ6knCVOI5pPRiFZ75mzSFVWKJMIk5c1NPBnm/RLui544x3uqMSoFHJAdg1NuwkrRworyuXqjCU+phTS4r5ZDLZ0OXMNY8wfQHljMGGBEx2F1DRiSl9XqFRJaNd9Ad7DW6iQifxMA1iEvdkH/gjhehyci9BApwAeXpgUWvhJbEllk4+hJCFwrvViYNg4Y8Vc67v0hJ4GbguhwF2eGd/DCYA/KNbuBW89mtpAB2+xyYivA3aXdaaT60BS4kvzSbEhifhaOQxUNTx6PXOBy79qlpkibwUjeZYI7w2p2jK0CSxEU01rRd13FzA07CicR6AJshiqDE4rEMokNyiG0kexURoiB3D7XvofY91L6H2vdQ+/8Nak+NVVCbclZA7RzF4ghbWY2wlSfbYziTWrlaIqRaKVVr1Z1SvbxTKdWrpFzTK9XqpDr+D4DvaLNyfmRYOYf1s9Jt9v11rphTNd11JH3jnP36YHpDkLu5ZkOv2bH7Suq+krrrSkqJK6kIiXv8rj/zCwAEI0M97ndGT3qNfufwuNsYdQa0VqAIQkhoXOS4O+ocdjvto7ceBrbhEuMdiRc7PrOVNKO/Mcwtkz5Coq5k2pI/JVIAR16yYQFv059ohCyZvFnik4vbIZqHKHBK/F7cawTq39OsgKgPWxjxL4ZV1eagPxw1+pDcwx+PMl3mjaDN5xbLG6sG2W90h+1i4yBxWRzVZmsTgRpvUBIwG67pT6EDUx/MCf8pw4PIuiQXq9IaMFGS8rRYmZitssMo5XAFctuqC/EaBKXCMMpknGw7CogiHQnFDBLqE5RXjaBU+YHeuNRAK0uE1Zxopkm+yr1HyElnuXKrCoNc4ZsLgyyaZ5T1sT5K5T20jOUTEloJ09ESFkf56HgFeUkldv9cYp5XxZgllxgNIGBIxCELWkac6G7ubpEI0+Q3QorrgwckENByMk+TUCr7omymFQlISIsoJwlmaCidxVAYldD/2p1fOPZ/86Ufus01H7q72zwhsbTMyeQEkOXj5ElVROAzTnqhDZ5Tl7AKEsCM4Bvhu6u7dZa7gzx5nd9fPhe9fF6/Fv+33Euj5PFIgptaxAKYV/SJcqTdc85vrQtuUVS14w0sI7RzsfcvsVmSDsQH49SHik6m4bqAO+gL08IvvLumfdYptnq1olW3dsq1em2nrGzrtZ3tcXlLr0/q+o6mjSkg553SGoF2MQN0SB8TFRtEoVFLVE8efh1p9mnB3riBmSJ9HAWWYmc1LJPjNt43Xc9/TKFB+MUpJzHlhMPJx2qZY8bHvH2iVrY4AQSQOBhKzToKPT7/vwWO1TVnZsEHVHIUn9KdgBvM5xwdFt3QZqvXJ5c+RkIPgCTG3wPQwl8cFumNnyooi2L9qK9hMC7cHYqUD4FPHet22m0DQOfttdlLfdN6gwkwqHnbLjq2Z55O/aL7urUtl/WqXCuRsVIrVY2qUapPNKWkA7lClPrYqJfpE+uwc0gcJrkoOAhNN6YXaFZxPZT5r1bqvwB+x1KKozUAAA==</t>
+          <t>PTYAAB+LCAAAAAAAAAPtW1lz2zgS/issP2UeZIiybMlehFO6nHBWh8uSJ8m+pCASkrCmQA0P2/r32wB4gBSViI5n92GdclWEvgA0gO6vIQj//rL1jCcahMznH8/M8+aZQbnju4yvP57F0aphXp39buHRi0O9OxKQLY1A2AAtHt68hOzj2SaKdjcIPT8/nz9fnPvBGrWaTRN9nYznzoZuSYPxMCLcoWeZlvtzrTMLD9zthEbEJRFRmh/P7Ll9PqDMGQJtQjhZ0+C8H4eM0zAc8YhFjIZCM6AkooPh5E81Mat1fnVuYnRAzyX7MfNcJVeQVPREDrqlC7alVqvZajaanYZ5sWh2blrwd3ne6Zr/ShUzQTwmYTSnwRNzJGEeke1Oqjc75kWz0+q0LjGqFAJbuQMsPPPce/rEQuoOqOeFtTyCkgXsORHMup4zmxhpuomh1w/hU0B2mwWLPFpX/dYPqAOOelXfU/o8CxL/LXZj4C42LIj2Q7KvbeshpMFsJ7xRT9XCQ59HPY8G0cMOFpW6sObAsKIgphgdYeZKQxY68JnxmLrWinihrlRg4i9+8BjuiEOncGCRsPHMPZ+4sLMiFkbMyTs9YOC7wN+BRei873vuLVhNhCsYmWWbg4tFt33ff8xHV8XEcg/I3QBruiVRKn5Ax/ON/zzj3n4eL0MnYEvqDvupdCUPi5OXaA/iMPK3MIqchBVNo0wmaA//4LCVOXhIHbYl3p0HfgytCzBUIOBeHPkrFg18L97yMB1WiYq/wKQW9CWbZNbGM1hfLvzuc5un8srTlayiwr3/nPV5yJB+0Mi90ElX/JBRFh4CLV3BQ45cFDHLW+ZBLtCXQ6MWN8Z8Q2lUuSsUB4uwdyuyi9Xfiz4xyikYNidscKBaIkc05N+i2byRf9BzxsYj7iZyZrNhthoXulzKxNN4O1vCIX6Sc7JM4JVIGGbh9T3CH4H6hUWbaS8dfQUHqzkflT/kYTiuO4/sJTnzi07DNne82KUqCth8JTelGJtaxqNsfEAaw8G2MOH7xX4HUTdkNxF8+HgGefgmjALI9GeW48c8CvYiXGCUiP5MJ4yXXHZAvJN1VgH9KwaAsb+NuTPw3dN7c5V3HjiLTh+hHwcqBp6uIr0nwmEcDqkILDLSn6zv1JlTGNQS33K69TlzTvc2OFmM3n3FRML0VJ2sQdX5Olneg2Sucp046yerBYAOIbvV6qYXhr7D5GZNjoer6aMjR2ZIVyT2AJlFkFfXWbQtk3EvfCzL6CT8EHhpzLME7g0B+Dru9twBxCDA3bnjbwUBAd78MsdIlxewx6Ejvh4Tvo4BWGRxpUzPIq5IiouA8FBMJ8MRpeBbLYTTOKXwjaWC1yyWG0EFLx+4GJXk8IJud35AvAk4ht0m2y4BSYA/JiTaJC3IZh51UiejXDXTKo4sHfjPxGRaUtMQBz4JkyWiFBJzURA7l8lpWMxyAsfSGxCPLQMVVdPkXcWDBcsRYRp/xeRqosN0DaDMgnz7T7oX2DtvJHS5Zc2UoTawCKTW/L7d7XTbFy3AMqKN5Yw/DAe/AW5zY+m0G2PMIP6uGHWNKYQ48KfxiYQ3xmTSXzxAGpROShLRK/R1TXybxno5nAls2QKhyAeQsWaQSQ7kMkYub00Aem68vSapZjv2HRD8ACfP3xn3zGOhGvsjBAYxTqPnka0xICwozFip4QVZelQObdHvdrvXHdh0GQkLTyMJjoUvJM0eTiUozgg4KeJkYzCyB3f3ExldMmKqrxIMEvXh3o/z5lzNR/YkFxil+0KJWIM0WiXtAldLWJZeEBR1dKlj6solmiOPmkicV8BoVyditJbAaM1KjDYuJIek4Aaj15pwSQbfq8yQucyGgv6ybbYums1WFuTdbH9XCZVZiaUFWaOSniINFG5KtoM4eXk7ZcrTYHPXh/POSCajDonWUJ6sFky8nFAqhGCkEuyInlHakF0MGdTNEYTOiBqfKKfizPorY8Y8g3BXHAvwTS6uqapOhf6j1Df+gBQv9SeM78mj4RIuj1U/3jLdSDLa7HTqO+7w7Bb2YxVVmfuhYrnHT4Ef7w7iTk6tkKyMQIfckqb02eHQcl6FvBpsP4YcSniVUjKbYQ55rcnUgHhlRJtsj0oyLjMVVRNRtv6IIyJl7tkyLphI+spuDGDTw9HSm9kZgFiYZKUSBX+ZS68+Nr9rWSghinLrzmc8Cq1uW1ZaSQuDqimsyf+xvYXEKA1LvwG9RMGfSTh6iZJTbkHsLRJgnDsC29TPa9KMoIJ77ltoUs+wh+f3/X7TbN8YR/KEUUgmSUIo5ww5OvnpwOKPsqbxQY/RunExFamZ95SOzxjBCV6L01aW0HUsKbXXxlBQyGQVcBhAtut2Mokk3/k75uTW5zIGZL2XuLl02vNcxhxNMJFR+fWue3V9YSZc1Z8AR0sS0opICNOgWxZvjVRG3kuUpAsGTtbN1VQInw5n09Hc7uVSanSzAAKf2JPqA7bDFIeme02jABfwoQPnO6KHYocsnH7SAhpKbmVWPVfcxVvNqpuPggQexEGgUBNPLvTn8Q4wc3bxclxA3mlqOHmqMK2OnPO2PSzyoa1xIS8W2YIg+TI0JSwVpuxQ3AAp2DsVvsmbwCvcg4I/kkt7BcKeGKwDEpFnFAR+UBl+ck4qNgHEDTEF5S7PZJDoUqFzN1+slJCGvHeU/o7S31H6O0p/R+nvKL0CpZtN+U8i7Y1bBdXLEv8FvG4ex+vm93abmKvrbrdxRc2LRpsQp3F9aXYanZV7fXm5vOy0u+b/AMqnC1nx/cbRMZycyV61JX60TauLsLcOtm+U8H8cdU+Jhj+vB9EP1u+9Snuv0v7WKs3MqrQU5IfqG4jS9xIQp1zrYWovvk96U/vuYdxb2DNRhgjwoWU7JfIwXth3Y3t0/+FzzN2Auv8wVB0VGT739sZWfPOx85h4HcX9yGAcQgE1YggFBoc5/Ca+ONJSaP6YSg0uayeFAkSHNY0mmdW0XviTeDG1PgOKUZ8k5LUGs+l80ZsuYLHUV1olk1U9kN3OkynlWCe3vfF8VK8fpE9LYeNy2aNRswXKY2kvYNEGDDBntqPqCxZAPodymaooL3Mlo0pLVqDlCj4JWb5SoK8t6JCqaVAhPKNSMiq30+io05FWHCGtzEFVRQ0qFDHolwsWdLTEOM5JR5rnsco7ioo0Vyl3rKaoFP55TVEuBCTl9DIBFTIhOqwAchI6CurRAUxH1dD5CPlAJdv+lcSqXZXBmUpi2oEGL5FCM+gQk6K3uSRGOoJr/hKIPB1JII2ADvN2kYQKiReVk6xOQFq+RBXZsURDxUSGkqiE3u8T3/w+Eb3mBhG93UWhlliGbLX6BgD4a/7QKyWoEedWREPl1AOsgjQwo+2N5DXY226Wt4M8Vcb/vzbim1xsn16n/y133ih/05IDpyH1AOfVfTydak/8p1frwr6oq2qHM89N/FzvWU7mltyA/pRd7KG6g+kFAQAP8fC19tvzMeOPdr3ZW87V1cq9uKaXl3DWOkuy6rRM1zWv3Xa37XaXgKakUVEkCBNbgIfijVO9TkwRtnT1/D3aPeHrmtaUg6WieLMFnlKXpKAk3mulbXzLgjD6KrBB8klRvmWUbwpPfrVaCjR+Ve1vVjf52QUIIL0zVBh1Gnsi9asH3xuzLav5rquZxqeiEdgGu52Ch3UXdDCcTOlLhJFmAaDE8t+AWtRDyDrW1KmCuijTT23N42VtcyhVvgO+2Fiv0x65gDpfry1/Q8C8XxiAxJqvNWHzkK03Ud11Na+WZrd17UKMb9NGu33VhRi/dBvX1+SiS6+cttPsipffiXFIHIw+1+xEpBsWxsSrr4dKPwKz/gNq7hRCPTYAAA==</t>
         </r>
       </text>
     </comment>
@@ -39,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,23 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,20 +113,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,34 +442,34 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Subnational</t>
         </is>
@@ -454,105 +478,105 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>RMB hd</t>
+          <t>1000000 BTU hd</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Series ID</t>
         </is>
       </c>
-      <c r="B8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
+      <c r="B8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>254123002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SR Code</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Mnemonic</t>
         </is>
@@ -561,7 +585,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Function Description</t>
         </is>
@@ -574,300 +598,850 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>First Obs. Date</t>
         </is>
       </c>
-      <c r="B12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
+      <c r="B12" s="6">
+        <v>38718</v>
+      </c>
+      <c r="C12" s="6">
+        <v>38718</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Last Obs. Date</t>
         </is>
       </c>
-      <c r="B13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="C13" s="4">
-        <v>40878</v>
+      <c r="B13" s="6">
+        <v>41244</v>
+      </c>
+      <c r="C13" s="6">
+        <v>41244</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Last Update Time</t>
         </is>
       </c>
-      <c r="B14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41781</v>
+      <c r="B14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43839</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Series remarks</t>
         </is>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Suggestions</t>
         </is>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>1231.927</v>
+        <v>93374.63980350002</v>
       </c>
       <c r="C17" s="2">
-        <v>12319270</v>
+        <v>933746.398035</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>196242.7157566667</v>
+        <v>67588679.72409233</v>
       </c>
       <c r="C18" s="2">
-        <v>19624271575666.67</v>
+        <v>6758867972.409234</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
       </c>
       <c r="B19" s="2">
-        <v>442.9929071177852</v>
+        <v>8221.233467314521</v>
       </c>
       <c r="C19" s="2">
-        <v>4429929.071177852</v>
+        <v>82212.3346731452</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Skewness</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.5786993566761636</v>
       </c>
       <c r="C20" s="2">
-        <v>0.4639651794892376</v>
+        <v>0.5786993566761711</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Kurtosis</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.2909755924600841</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.8990137168045296</v>
+        <v>-0.2909755924600801</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Coefficient Variation</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654156</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>727.63</v>
+        <v>80465.44901</v>
       </c>
       <c r="C23" s="2">
-        <v>7276300</v>
+        <v>804654.4901000001</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>2026.83</v>
+        <v>112482.41951</v>
       </c>
       <c r="C24" s="2">
-        <v>20268300</v>
+        <v>1124824.1951</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>1181.145</v>
+        <v>92555.497445</v>
       </c>
       <c r="C25" s="2">
-        <v>11811450</v>
+        <v>925554.97445</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>No. of Obs</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
-        <v>37226</v>
-      </c>
-      <c r="B27" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="C27" s="8">
-        <v>7910200</v>
+      <c r="A27" s="10">
+        <v>38718</v>
+      </c>
+      <c r="B27" s="11">
+        <v>102584.6417</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1025846.417</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
-        <v>37591</v>
-      </c>
-      <c r="B28" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="C28" s="8">
-        <v>7677300</v>
+      <c r="A28" s="10">
+        <v>38749</v>
+      </c>
+      <c r="B28" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="C28" s="11">
+        <v>934675.4944</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
-        <v>37956</v>
-      </c>
-      <c r="B29" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="C29" s="8">
-        <v>7276300</v>
+      <c r="A29" s="10">
+        <v>38777</v>
+      </c>
+      <c r="B29" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C29" s="11">
+        <v>986070.1212000001</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
-        <v>38322</v>
-      </c>
-      <c r="B30" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="C30" s="8">
-        <v>9229100</v>
+      <c r="A30" s="10">
+        <v>38808</v>
+      </c>
+      <c r="B30" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="C30" s="11">
+        <v>973956.4367</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
-        <v>38687</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="C31" s="8">
-        <v>11264900</v>
+      <c r="A31" s="10">
+        <v>38838</v>
+      </c>
+      <c r="B31" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="C31" s="11">
+        <v>920751.2437</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
+        <v>38869</v>
+      </c>
+      <c r="B32" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="C32" s="11">
+        <v>952322.3819</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
+        <v>38899</v>
+      </c>
+      <c r="B33" s="11">
+        <v>100047.7073</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1000477.073</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
+        <v>38930</v>
+      </c>
+      <c r="B34" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="C34" s="11">
+        <v>953072.4011</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
+        <v>38961</v>
+      </c>
+      <c r="B35" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="C35" s="11">
+        <v>899178.3798</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
+        <v>38991</v>
+      </c>
+      <c r="B36" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="C36" s="11">
+        <v>983958.3232</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
+        <v>39022</v>
+      </c>
+      <c r="B37" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="C37" s="11">
+        <v>981701.3428</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
         <v>39052</v>
       </c>
-      <c r="B32" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="C32" s="8">
-        <v>12358000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
+      <c r="B38" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="C38" s="11">
+        <v>985689.4826</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
+        <v>39083</v>
+      </c>
+      <c r="B39" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="C39" s="11">
+        <v>955242.498</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <v>39114</v>
+      </c>
+      <c r="B40" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="C40" s="11">
+        <v>836170.2267999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
+        <v>39142</v>
+      </c>
+      <c r="B41" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C41" s="11">
+        <v>986070.1212000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>39173</v>
+      </c>
+      <c r="B42" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="C42" s="11">
+        <v>873135.9292</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>39203</v>
+      </c>
+      <c r="B43" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="C43" s="11">
+        <v>890921.2278</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>39234</v>
+      </c>
+      <c r="B44" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="C44" s="11">
+        <v>835804.9620000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>39264</v>
+      </c>
+      <c r="B45" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="C45" s="11">
+        <v>890628.2719000001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>39295</v>
+      </c>
+      <c r="B46" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="C46" s="11">
+        <v>931599.971</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10">
+        <v>39326</v>
+      </c>
+      <c r="B47" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="C47" s="11">
+        <v>865890.8223999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>39356</v>
+      </c>
+      <c r="B48" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="C48" s="11">
+        <v>930358.7052</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10">
+        <v>39387</v>
+      </c>
+      <c r="B49" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="C49" s="11">
+        <v>913561.5084</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
         <v>39417</v>
       </c>
-      <c r="B33" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="C33" s="8">
-        <v>14827100</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
+      <c r="B50" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="C50" s="11">
+        <v>956887.3797</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10">
+        <v>39448</v>
+      </c>
+      <c r="B51" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="C51" s="11">
+        <v>963289.469</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>39479</v>
+      </c>
+      <c r="B52" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="C52" s="11">
+        <v>989537.5303</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10">
+        <v>39508</v>
+      </c>
+      <c r="B53" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="C53" s="11">
+        <v>900977.7222</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>39539</v>
+      </c>
+      <c r="B54" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="C54" s="11">
+        <v>821558.0794</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10">
+        <v>39569</v>
+      </c>
+      <c r="B55" s="11">
+        <v>90612.21428</v>
+      </c>
+      <c r="C55" s="11">
+        <v>906122.1428</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>39600</v>
+      </c>
+      <c r="B56" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="C56" s="11">
+        <v>834686.9956</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10">
+        <v>39630</v>
+      </c>
+      <c r="B57" s="11">
+        <v>85880.46527</v>
+      </c>
+      <c r="C57" s="11">
+        <v>858804.6527</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>39661</v>
+      </c>
+      <c r="B58" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="C58" s="11">
+        <v>880719.5206</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10">
+        <v>39692</v>
+      </c>
+      <c r="B59" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="C59" s="11">
+        <v>864116.581</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>39722</v>
+      </c>
+      <c r="B60" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="C60" s="11">
+        <v>858634.6357</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10">
+        <v>39753</v>
+      </c>
+      <c r="B61" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="C61" s="11">
+        <v>879111.5601999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
         <v>39783</v>
       </c>
-      <c r="B34" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>15986100</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
+      <c r="B62" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="C62" s="11">
+        <v>917899.0821999999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="10">
+        <v>39814</v>
+      </c>
+      <c r="B63" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="C63" s="11">
+        <v>920303.7178</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>39845</v>
+      </c>
+      <c r="B64" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="C64" s="11">
+        <v>804654.4901000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>39873</v>
+      </c>
+      <c r="B65" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="C65" s="11">
+        <v>815585.1788</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>39904</v>
+      </c>
+      <c r="B66" s="11">
+        <v>81657.46119</v>
+      </c>
+      <c r="C66" s="11">
+        <v>816574.6119</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>39934</v>
+      </c>
+      <c r="B67" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="C67" s="11">
+        <v>833087.8529000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>39965</v>
+      </c>
+      <c r="B68" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="C68" s="11">
+        <v>848394.9019000001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10">
+        <v>39995</v>
+      </c>
+      <c r="B69" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="C69" s="11">
+        <v>904136.6712</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B70" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="C70" s="11">
+        <v>859455.6743</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="10">
+        <v>40057</v>
+      </c>
+      <c r="B71" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="C71" s="11">
+        <v>846724.3913</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>40087</v>
+      </c>
+      <c r="B72" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="C72" s="11">
+        <v>853705.4401</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10">
+        <v>40118</v>
+      </c>
+      <c r="B73" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="C73" s="11">
+        <v>865784.388</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
         <v>40148</v>
       </c>
-      <c r="B35" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="C35" s="8">
-        <v>16395400</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
+      <c r="B74" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="C74" s="11">
+        <v>971566.5667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B75" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="C75" s="11">
+        <v>972891.0838</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>40210</v>
+      </c>
+      <c r="B76" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="C76" s="11">
+        <v>946714.368</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>40238</v>
+      </c>
+      <c r="B77" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="C77" s="11">
+        <v>1104032.4314</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>40269</v>
+      </c>
+      <c r="B78" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="C78" s="11">
+        <v>996406.6865</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10">
+        <v>40299</v>
+      </c>
+      <c r="B79" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="C79" s="11">
+        <v>1100558.161</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>40330</v>
+      </c>
+      <c r="B80" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="C80" s="11">
+        <v>949300.2968</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="10">
+        <v>40360</v>
+      </c>
+      <c r="B81" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="C81" s="11">
+        <v>1110791.5933</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10">
+        <v>40391</v>
+      </c>
+      <c r="B82" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="C82" s="11">
+        <v>1124824.1951</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10">
+        <v>40422</v>
+      </c>
+      <c r="B83" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="C83" s="11">
+        <v>1055031.7811</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>40452</v>
+      </c>
+      <c r="B84" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="C84" s="11">
+        <v>1077650.2529</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10">
+        <v>40483</v>
+      </c>
+      <c r="B85" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="C85" s="11">
+        <v>1013640.3607</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
         <v>40513</v>
       </c>
-      <c r="B36" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="C36" s="8">
-        <v>20268300</v>
+      <c r="B86" s="11">
+        <v>109354.00938</v>
+      </c>
+      <c r="C86" s="11">
+        <v>1093540.0938</v>
       </c>
     </row>
   </sheetData>
@@ -887,23 +1461,23 @@
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>0</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>3</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>3</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>1</Order>
         </MetadataSeries>
       </MetaDataSeries>
@@ -913,7 +1487,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44CE76DA-DB49-4B1E-BE6F-E3F5F5271926}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DE04B96-1BDB-4054-BC3A-0F6706739028}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
